--- a/biology/Médecine/Muscle_droit_médial_de_l'œil/Muscle_droit_médial_de_l'œil.xlsx
+++ b/biology/Médecine/Muscle_droit_médial_de_l'œil/Muscle_droit_médial_de_l'œil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_droit_m%C3%A9dial_de_l%27%C5%93il</t>
+          <t>Muscle_droit_médial_de_l'œil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle droit médial du bulbe de l'œil ou muscle droit médial de l'œil (Musculus rectus medialis) ou  muscle droit interne de l'œil est un des quatre muscles droits de l'œil. Il permet par sa contraction d'orienter le regard en dedans.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_droit_m%C3%A9dial_de_l%27%C5%93il</t>
+          <t>Muscle_droit_médial_de_l'œil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine dorsale: il nait de le languette interne du ligament de Zinn fixé sur le corps du sphénoïde.
 Trajet: il se dirige en avant et en dedans en s'élargissant pour venir se réfléchir sur le globe de l'œil et se porter en avant et en dehors.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_droit_m%C3%A9dial_de_l%27%C5%93il</t>
+          <t>Muscle_droit_médial_de_l'œil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est innervé par la branche inférieure du nerf oculomoteur, 3e nerf crânien qui l'aborde par sa face externe.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_droit_m%C3%A9dial_de_l%27%C5%93il</t>
+          <t>Muscle_droit_médial_de_l'œil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est vascularisé par une branche de l'artère musculaire supérieure branche de l'artère ophtalmique.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_droit_m%C3%A9dial_de_l%27%C5%93il</t>
+          <t>Muscle_droit_médial_de_l'œil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En faisant tourner la partie antérieure du globe oculaire vers l'intérieur, il porte le regard vers l'intérieur.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_droit_m%C3%A9dial_de_l%27%C5%93il</t>
+          <t>Muscle_droit_médial_de_l'œil</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Rapports</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est en rapport, en dedans avec la paroi médiale de l'orbite, en dehors, en arrière avec le nerf optique, en avant avec le globe oculaire
 </t>
